--- a/techniqo/data_new_ticker/INDIGO.xlsx
+++ b/techniqo/data_new_ticker/INDIGO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1199"/>
+  <dimension ref="A1:G1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42351,6 +42351,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>1320.8</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>1343.55</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>2052714</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1201" t="n">
+        <v>1351.9</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>1353.05</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>1318.75</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>1986297</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/INDIGO.xlsx
+++ b/techniqo/data_new_ticker/INDIGO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1201"/>
+  <dimension ref="A1:G1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42401,6 +42401,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>1317</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>1310.05</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>1326.2</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>1648290</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>1334.9</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>1303.05</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>1315.2</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1734743</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
